--- a/inputs/metadata_configuration_file.xlsx
+++ b/inputs/metadata_configuration_file.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\echassot\Desktop\repositories\data-analysis\iotc-tcac-simulations\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{954732A0-7381-435E-803F-AFFE520A037C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4641463D-E676-435E-8024-65BE18BE733F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{285539CB-9A0C-4AA0-B324-24EFEBF5A269}"/>
+    <workbookView xWindow="33945" yWindow="2385" windowWidth="21600" windowHeight="11295" activeTab="1" xr2:uid="{285539CB-9A0C-4AA0-B324-24EFEBF5A269}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="CPC" sheetId="1" r:id="rId1"/>
+    <sheet name="CS" sheetId="2" r:id="rId2"/>
+    <sheet name="CATCH" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="55">
   <si>
     <t>Field name</t>
   </si>
@@ -111,6 +113,96 @@
   </si>
   <si>
     <t>Maldives</t>
+  </si>
+  <si>
+    <t>CP</t>
+  </si>
+  <si>
+    <t>Contracting Party</t>
+  </si>
+  <si>
+    <t>true or false</t>
+  </si>
+  <si>
+    <t>916,244 km2</t>
+  </si>
+  <si>
+    <t>Field Name</t>
+  </si>
+  <si>
+    <t>Used in Option</t>
+  </si>
+  <si>
+    <t>DEVELOPMENT_STATUS</t>
+  </si>
+  <si>
+    <t>PER_CAPITA_FISH_CONSUMPTION_KG</t>
+  </si>
+  <si>
+    <t>CUV_INDEX</t>
+  </si>
+  <si>
+    <t>PROP_WORKERS_EMPLOYED_SSF</t>
+  </si>
+  <si>
+    <t>PROP_FISHERIES_CONTRIBUTION_GDP</t>
+  </si>
+  <si>
+    <t>PROP_EXPORT_VALUE_FISHERY</t>
+  </si>
+  <si>
+    <t>HDI_STATUS</t>
+  </si>
+  <si>
+    <t>GNI_STATUS</t>
+  </si>
+  <si>
+    <t>Mnemonic code, generally the ISO3 code</t>
+  </si>
+  <si>
+    <t>Official English Name</t>
+  </si>
+  <si>
+    <t>Official French Name</t>
+  </si>
+  <si>
+    <t>Development classification: Least Developed (LD), Developing (DG), Developed (DE)</t>
+  </si>
+  <si>
+    <t>Per capita fish consumption (kg/person/year)</t>
+  </si>
+  <si>
+    <t>Commonwealth Universal Vulnerability Index</t>
+  </si>
+  <si>
+    <t>Percentage of fish workers employed in small-scale and artisanal fisheries</t>
+  </si>
+  <si>
+    <t>Percentage of total export value contributed by fisheries</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Both</t>
+  </si>
+  <si>
+    <t>Option 1</t>
+  </si>
+  <si>
+    <t>SIDS_STATUS</t>
+  </si>
+  <si>
+    <t>Option 2</t>
+  </si>
+  <si>
+    <t>Human Development Index status</t>
+  </si>
+  <si>
+    <t>Gross National Income status</t>
+  </si>
+  <si>
+    <t>Percentage contribution of fisheries to Gross Domestic Product</t>
   </si>
 </sst>
 </file>
@@ -146,11 +238,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -487,8 +586,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A520B7AC-34D1-4257-8FF3-B3587283E1D8}">
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -516,7 +615,7 @@
       <c r="B2" t="s">
         <v>15</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="2" t="s">
         <v>23</v>
       </c>
     </row>
@@ -527,7 +626,7 @@
       <c r="B3" t="s">
         <v>13</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="2" t="s">
         <v>24</v>
       </c>
     </row>
@@ -538,6 +637,9 @@
       <c r="B4" t="s">
         <v>14</v>
       </c>
+      <c r="C4" s="2" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -546,6 +648,9 @@
       <c r="B5" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="C5" s="2" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -554,6 +659,9 @@
       <c r="B6" t="s">
         <v>17</v>
       </c>
+      <c r="C6" s="2" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -562,6 +670,9 @@
       <c r="B7" s="1" t="s">
         <v>18</v>
       </c>
+      <c r="C7" s="2" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -570,6 +681,9 @@
       <c r="B8" t="s">
         <v>19</v>
       </c>
+      <c r="C8" s="2" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -578,6 +692,9 @@
       <c r="B9" t="s">
         <v>20</v>
       </c>
+      <c r="C9" s="2" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -586,6 +703,9 @@
       <c r="B10" t="s">
         <v>21</v>
       </c>
+      <c r="C10" s="2" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -594,8 +714,195 @@
       <c r="B11" t="s">
         <v>22</v>
       </c>
+      <c r="C11" s="3">
+        <v>1.49E-2</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AE505D3-2775-4DB7-AB50-F5FBCCCD6564}">
+  <dimension ref="A1:C17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="34.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="75.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>50</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10" t="s">
+        <v>54</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>37</v>
+      </c>
+      <c r="B12" t="s">
+        <v>52</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>38</v>
+      </c>
+      <c r="B13" t="s">
+        <v>53</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C14" s="4"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B16" s="1"/>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B17" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A0F2155-CA94-4EFE-A2A0-D21CAA29E604}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/inputs/metadata_configuration_file.xlsx
+++ b/inputs/metadata_configuration_file.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\echassot\Desktop\repositories\data-analysis\iotc-tcac-simulations\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4641463D-E676-435E-8024-65BE18BE733F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A09A6ACA-9401-4CC6-BBFF-F517176586A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33945" yWindow="2385" windowWidth="21600" windowHeight="11295" activeTab="1" xr2:uid="{285539CB-9A0C-4AA0-B324-24EFEBF5A269}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{285539CB-9A0C-4AA0-B324-24EFEBF5A269}"/>
   </bookViews>
   <sheets>
     <sheet name="CPC" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="85">
   <si>
     <t>Field name</t>
   </si>
@@ -203,6 +203,96 @@
   </si>
   <si>
     <t>Percentage contribution of fisheries to Gross Domestic Product</t>
+  </si>
+  <si>
+    <t>YEAR</t>
+  </si>
+  <si>
+    <t>FLAG_CODE</t>
+  </si>
+  <si>
+    <t>FLEET_CODE</t>
+  </si>
+  <si>
+    <t>FISHERY_TYPE</t>
+  </si>
+  <si>
+    <t>FISHERY_CODE</t>
+  </si>
+  <si>
+    <t>SCHOOL_TYPE_CODE</t>
+  </si>
+  <si>
+    <t>ASSIGNED_AREA</t>
+  </si>
+  <si>
+    <t>SPECIES_CODE</t>
+  </si>
+  <si>
+    <t>CATCH_MT</t>
+  </si>
+  <si>
+    <t>Gregorian calendar year of the fishing activities</t>
+  </si>
+  <si>
+    <t>EUR.FRA</t>
+  </si>
+  <si>
+    <t>Code List</t>
+  </si>
+  <si>
+    <t>Classification to define the scale of the fishing operations, separating fisheries composed of vessels less than 24 m and operating exclusively in National Jurisdiction Areas (ART = Artisanal/coastal) and surface and longline fisheries that may operate on the High Seas (IND = Industrial)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fishing gear used to catch the fish. GI = gillnets; HL = handlines; LL = longlines; OT = other gears; PL = pole-and-lines; PS = purse seines; TL = trolling lines </t>
+  </si>
+  <si>
+    <t>IND</t>
+  </si>
+  <si>
+    <t>PS</t>
+  </si>
+  <si>
+    <t>Behavioural or environmental context in which fishing activity occurs, particularly in purse seine and other surface fisheries. FS = free-swimming schools; LS = schools associated with drifting floating objects</t>
+  </si>
+  <si>
+    <t>NJA_SYC</t>
+  </si>
+  <si>
+    <t>YFT</t>
+  </si>
+  <si>
+    <t>Amount of fish caught and retained in live-weight equivalent (metric tonnes)</t>
+  </si>
+  <si>
+    <t>Area of origin of the catch, either the high seas (HIGH_SEAS) or the national jurisdiction areas identified with the ISO 3166 alpha-3 code of the country, except for the Chagos archipelago (CHAGOS) and France Overseas territory (FRAT)</t>
+  </si>
+  <si>
+    <t>ASFIS alpha-3 code of the fish species</t>
+  </si>
+  <si>
+    <t>https://data.iotc.org/reference/latest/domain/legacy/#fisheryTypes</t>
+  </si>
+  <si>
+    <t>https://data.iotc.org/reference/latest/domain/legacy/#schoolTypes</t>
+  </si>
+  <si>
+    <t>FS</t>
+  </si>
+  <si>
+    <t>https://data.iotc.org/reference/latest/domain/legacy/#species</t>
+  </si>
+  <si>
+    <t>https://data.iotc.org/reference/latest/domain/legacy/#fleets</t>
+  </si>
+  <si>
+    <t>EUR</t>
+  </si>
+  <si>
+    <t>Flag state of the fishery vessels, combining the CPC in the case of European Union Member States and aggregating all non-CPCs as others (OTH) or not elsewehere included (NEI)</t>
+  </si>
+  <si>
+    <t>Similar to flag code except in the case of European Union countries (EUR)</t>
   </si>
 </sst>
 </file>
@@ -238,7 +328,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -250,6 +340,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -727,8 +826,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AE505D3-2775-4DB7-AB50-F5FBCCCD6564}">
   <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -896,13 +995,156 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A0F2155-CA94-4EFE-A2A0-D21CAA29E604}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A5299DC-178B-4681-AD4A-DBFFBD3062EA}">
+  <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="31.42578125" style="6" customWidth="1"/>
+    <col min="2" max="2" width="82.42578125" style="6" customWidth="1"/>
+    <col min="3" max="3" width="22.28515625" style="6" customWidth="1"/>
+    <col min="4" max="4" width="57" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C2" s="5">
+        <v>1995</v>
+      </c>
+      <c r="D2" s="1"/>
+    </row>
+    <row r="3" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D3" s="1"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="D6" s="1"/>
+    </row>
+    <row r="7" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="D8" s="1"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C10" s="5">
+        <v>5200</v>
+      </c>
+      <c r="D10" s="1"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C11" s="7"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/inputs/metadata_configuration_file.xlsx
+++ b/inputs/metadata_configuration_file.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\echassot\Desktop\repositories\data-analysis\iotc-tcac-simulations\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A09A6ACA-9401-4CC6-BBFF-F517176586A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34987A11-31B9-4FE2-8308-9B8C7CE1E31C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{285539CB-9A0C-4AA0-B324-24EFEBF5A269}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{285539CB-9A0C-4AA0-B324-24EFEBF5A269}"/>
   </bookViews>
   <sheets>
     <sheet name="CPC" sheetId="1" r:id="rId1"/>
@@ -336,9 +336,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -348,6 +345,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -686,7 +686,7 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -813,8 +813,8 @@
       <c r="B11" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="3">
-        <v>1.49E-2</v>
+      <c r="C11" s="7">
+        <v>1.49</v>
       </c>
     </row>
   </sheetData>
@@ -855,7 +855,7 @@
       <c r="B2" t="s">
         <v>39</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>47</v>
       </c>
     </row>
@@ -866,7 +866,7 @@
       <c r="B3" t="s">
         <v>40</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="3" t="s">
         <v>47</v>
       </c>
     </row>
@@ -877,7 +877,7 @@
       <c r="B4" t="s">
         <v>41</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="3" t="s">
         <v>47</v>
       </c>
     </row>
@@ -888,7 +888,7 @@
       <c r="B5" t="s">
         <v>42</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="3" t="s">
         <v>47</v>
       </c>
     </row>
@@ -899,7 +899,7 @@
       <c r="B6" t="s">
         <v>43</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="3" t="s">
         <v>49</v>
       </c>
     </row>
@@ -910,7 +910,7 @@
       <c r="B7" t="s">
         <v>44</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="3" t="s">
         <v>49</v>
       </c>
     </row>
@@ -921,7 +921,7 @@
       <c r="B8" t="s">
         <v>45</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="3" t="s">
         <v>49</v>
       </c>
     </row>
@@ -932,7 +932,7 @@
       <c r="B9" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="3" t="s">
         <v>48</v>
       </c>
     </row>
@@ -943,7 +943,7 @@
       <c r="B10" t="s">
         <v>54</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="3" t="s">
         <v>49</v>
       </c>
     </row>
@@ -954,7 +954,7 @@
       <c r="B11" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="3" t="s">
         <v>49</v>
       </c>
     </row>
@@ -965,7 +965,7 @@
       <c r="B12" t="s">
         <v>52</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="3" t="s">
         <v>51</v>
       </c>
     </row>
@@ -976,12 +976,12 @@
       <c r="B13" t="s">
         <v>53</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="3" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C14" s="4"/>
+      <c r="C14" s="3"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B16" s="1"/>
@@ -999,29 +999,29 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.42578125" style="6" customWidth="1"/>
-    <col min="2" max="2" width="82.42578125" style="6" customWidth="1"/>
-    <col min="3" max="3" width="22.28515625" style="6" customWidth="1"/>
-    <col min="4" max="4" width="57" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="6"/>
+    <col min="1" max="1" width="31.42578125" style="5" customWidth="1"/>
+    <col min="2" max="2" width="82.42578125" style="5" customWidth="1"/>
+    <col min="3" max="3" width="22.28515625" style="5" customWidth="1"/>
+    <col min="4" max="4" width="57" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="4" t="s">
         <v>66</v>
       </c>
     </row>
@@ -1032,7 +1032,7 @@
       <c r="B2" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C2" s="5">
+      <c r="C2" s="4">
         <v>1995</v>
       </c>
       <c r="D2" s="1"/>
@@ -1044,7 +1044,7 @@
       <c r="B3" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="4" t="s">
         <v>65</v>
       </c>
       <c r="D3" s="1"/>
@@ -1056,7 +1056,7 @@
       <c r="B4" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="4" t="s">
         <v>82</v>
       </c>
       <c r="D4" s="1" t="s">
@@ -1070,7 +1070,7 @@
       <c r="B5" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="4" t="s">
         <v>69</v>
       </c>
       <c r="D5" s="1" t="s">
@@ -1084,7 +1084,7 @@
       <c r="B6" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="4" t="s">
         <v>70</v>
       </c>
       <c r="D6" s="1"/>
@@ -1096,7 +1096,7 @@
       <c r="B7" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="4" t="s">
         <v>79</v>
       </c>
       <c r="D7" s="1" t="s">
@@ -1110,7 +1110,7 @@
       <c r="B8" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="4" t="s">
         <v>72</v>
       </c>
       <c r="D8" s="1"/>
@@ -1122,7 +1122,7 @@
       <c r="B9" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="4" t="s">
         <v>73</v>
       </c>
       <c r="D9" s="1" t="s">
@@ -1136,13 +1136,13 @@
       <c r="B10" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="C10" s="5">
+      <c r="C10" s="4">
         <v>5200</v>
       </c>
       <c r="D10" s="1"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C11" s="7"/>
+      <c r="C11" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/inputs/metadata_configuration_file.xlsx
+++ b/inputs/metadata_configuration_file.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\echassot\Desktop\repositories\data-analysis\iotc-tcac-simulations\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34987A11-31B9-4FE2-8308-9B8C7CE1E31C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B5F7254-6BB0-4B25-BBCA-085D1F0F5781}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{285539CB-9A0C-4AA0-B324-24EFEBF5A269}"/>
   </bookViews>
@@ -289,10 +289,10 @@
     <t>EUR</t>
   </si>
   <si>
-    <t>Flag state of the fishery vessels, combining the CPC in the case of European Union Member States and aggregating all non-CPCs as others (OTH) or not elsewehere included (NEI)</t>
-  </si>
-  <si>
     <t>Similar to flag code except in the case of European Union countries (EUR)</t>
+  </si>
+  <si>
+    <t>Flag state of the fishery vessels, combining the CPC in the case of European Union Member States and aggregating all non-CPCs as others (OTH) or not elsewhere included (NEI)</t>
   </si>
 </sst>
 </file>
@@ -999,7 +999,7 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1007,7 +1007,7 @@
     <col min="1" max="1" width="31.42578125" style="5" customWidth="1"/>
     <col min="2" max="2" width="82.42578125" style="5" customWidth="1"/>
     <col min="3" max="3" width="22.28515625" style="5" customWidth="1"/>
-    <col min="4" max="4" width="57" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="66.42578125" style="5" customWidth="1"/>
     <col min="5" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
@@ -1042,7 +1042,7 @@
         <v>56</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>65</v>
@@ -1054,7 +1054,7 @@
         <v>57</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>82</v>
